--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2243.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2243.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.277059795165949</v>
+        <v>1.111543774604797</v>
       </c>
       <c r="B1">
-        <v>2.633892045397232</v>
+        <v>2.506280183792114</v>
       </c>
       <c r="C1">
-        <v>7.771616503967026</v>
+        <v>6.215395927429199</v>
       </c>
       <c r="D1">
-        <v>2.122995671175052</v>
+        <v>2.181187152862549</v>
       </c>
       <c r="E1">
-        <v>1.10772995155437</v>
+        <v>1.256453990936279</v>
       </c>
     </row>
   </sheetData>
